--- a/ACreation_QR_Code/names_SP.xlsx
+++ b/ACreation_QR_Code/names_SP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alean\OneDrive\Desktop\python\Qr_Code_Project\ACreation_QR_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D33E6A3-FA36-431C-A41E-651F642A8592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B74DBF-2DA9-4C38-A3C2-B8835EEFDF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5510" yWindow="1970" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Badong Beato318W3</t>
-  </si>
-  <si>
-    <t>Raymond PulangrK1lN</t>
-  </si>
-  <si>
-    <t>Jacklyn De GuzmanoHRW9J</t>
-  </si>
-  <si>
-    <t>Katrina GarciaC0z66</t>
-  </si>
-  <si>
-    <t>Maria Lourdes RaquepoB6MaS</t>
-  </si>
-  <si>
-    <t>Badong BeatoCfCZT</t>
-  </si>
-  <si>
-    <t>Badong Beato1kEuO</t>
-  </si>
-  <si>
-    <t>Raymond PulangkiGb8</t>
-  </si>
-  <si>
-    <t>Jacklyn De GuzmanoHxHQV</t>
-  </si>
-  <si>
-    <t>Katrina Garcia2ERKW</t>
-  </si>
-  <si>
-    <t>Maria Lourdes RaquepoUa2yd</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,70 +336,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A12" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>